--- a/MethodDemos/output/statistics/parscit-AUTHORS.xlsx
+++ b/MethodDemos/output/statistics/parscit-AUTHORS.xlsx
@@ -951,7 +951,7 @@
   <si>
     <t>Amirreza Tahamtan
 Rainer Kern
-Min Tjoa</t>
+A Min Tjoa</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1354,7 +1354,7 @@
   </si>
   <si>
     <t>Bogdan Ionescu
-Alexandru Lucian Gînsc
+Alexandru Lucian Gînscă
 Maia Zaharieva
 Bogdan Boteanu
 Mihai Lupu
@@ -6087,13 +6087,13 @@
         <v>195</v>
       </c>
       <c r="G66" t="n" s="592">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H66" t="n" s="593">
-        <v>0.67</v>
+        <v>1.0</v>
       </c>
       <c r="I66" t="n" s="594">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="67">
